--- a/data/outputs/OR/61.xlsx
+++ b/data/outputs/OR/61.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ51"/>
+  <dimension ref="A1:BR51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1339,6 +1346,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1540,6 +1548,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1749,6 +1758,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1966,6 +1976,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2171,6 +2182,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2380,6 +2392,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2597,6 +2610,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2688,7 +2702,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t> [MTM2010-15383]</t>
+          <t>[MTM2010-15383]</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2814,6 +2828,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3019,6 +3034,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3244,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3445,6 +3462,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3646,6 +3664,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3855,6 +3874,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4064,6 +4084,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4273,6 +4294,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4470,6 +4492,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4675,6 +4698,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4876,6 +4900,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5097,6 +5122,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5302,6 +5328,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5511,6 +5538,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5708,6 +5736,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5917,6 +5946,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6130,6 +6160,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6343,6 +6374,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6552,6 +6584,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6765,6 +6798,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6974,6 +7008,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7183,6 +7218,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7388,6 +7424,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7601,6 +7638,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7810,6 +7848,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8011,6 +8050,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8212,6 +8252,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8401,6 +8442,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8594,6 +8636,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8799,6 +8842,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8992,6 +9036,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9189,6 +9234,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9382,6 +9428,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9579,6 +9626,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9772,6 +9820,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9961,6 +10010,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10158,6 +10208,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10351,6 +10402,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10548,6 +10600,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10757,6 +10810,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10958,6 +11012,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
